--- a/MS/Integrate/From-Tomsk/MePhO2SOPh-v1-v2.xlsx
+++ b/MS/Integrate/From-Tomsk/MePhO2SOPh-v1-v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MePhO2SOPh-v1-v2" sheetId="1" state="visible" r:id="rId2"/>
@@ -111,8 +111,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -189,12 +188,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -300,21 +299,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -427,11 +411,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30962587"/>
-        <c:axId val="26074635"/>
+        <c:axId val="56845903"/>
+        <c:axId val="93462338"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30962587"/>
+        <c:axId val="56845903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,24 +435,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26074635"/>
+        <c:crossAx val="93462338"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26074635"/>
+        <c:axId val="93462338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,19 +486,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30962587"/>
+        <c:crossAx val="56845903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -532,20 +524,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -573,18 +551,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Chart Title</a:t>
@@ -593,12 +581,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -626,21 +608,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -753,11 +720,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3959513"/>
-        <c:axId val="2518375"/>
+        <c:axId val="79278897"/>
+        <c:axId val="88341506"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3959513"/>
+        <c:axId val="79278897"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,24 +754,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2518375"/>
+        <c:crossAx val="88341506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2518375"/>
+        <c:axId val="88341506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,19 +805,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3959513"/>
+        <c:crossAx val="79278897"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -881,13 +856,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>293400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:colOff>254520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -895,8 +870,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="293400" y="2732040"/>
-        <a:ext cx="5755320" cy="3226320"/>
+        <a:off x="293400" y="2740680"/>
+        <a:ext cx="5760360" cy="3225240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -909,15 +884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -925,8 +900,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6923880" y="2900160"/>
-        <a:ext cx="4519080" cy="2742840"/>
+        <a:off x="6930000" y="2908440"/>
+        <a:ext cx="4674960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -944,26 +919,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,8 +1044,16 @@
         <f aca="false">0.0000000000004*K3*K3+0.00000003*K3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="0" t="n">
+        <f aca="false">L3/248.0507</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">M3*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
@@ -1108,8 +1093,16 @@
         <f aca="false">0.0000000000004*K4*K4+0.00000003*K4</f>
         <v>2.29545225E-005</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="0" t="n">
+        <f aca="false">L4/248.0507</f>
+        <v>9.25396400816446E-008</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">M4*300</f>
+        <v>2.77618920244934E-005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>150</v>
       </c>
@@ -1149,8 +1142,16 @@
         <f aca="false">0.0000000000004*K5*K5+0.00000003*K5</f>
         <v>0.0001977444864</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="0" t="n">
+        <f aca="false">L5/248.0507</f>
+        <v>7.97193825294587E-007</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">M5*300</f>
+        <v>0.000239158147588376</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>300</v>
       </c>
@@ -1190,8 +1191,16 @@
         <f aca="false">0.0000000000004*K6*K6+0.00000003*K6</f>
         <v>0.000236927327449</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="n">
+        <f aca="false">L6/248.0507</f>
+        <v>9.55156858855871E-007</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">M6*300</f>
+        <v>0.000286547057656761</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>450</v>
       </c>
@@ -1231,8 +1240,16 @@
         <f aca="false">0.0000000000004*K7*K7+0.00000003*K7</f>
         <v>0.000443394661249</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="n">
+        <f aca="false">L7/248.0507</f>
+        <v>1.78751626683174E-006</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">M7*300</f>
+        <v>0.000536254880049522</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>600</v>
       </c>
@@ -1272,8 +1289,16 @@
         <f aca="false">0.0000000000004*K8*K8+0.00000003*K8</f>
         <v>0.000415401454321</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="n">
+        <f aca="false">L8/248.0507</f>
+        <v>1.67466350355391E-006</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">M8*300</f>
+        <v>0.000502399051066173</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>750</v>
       </c>
@@ -1313,8 +1338,16 @@
         <f aca="false">0.0000000000004*K9*K9+0.00000003*K9</f>
         <v>0.000556777245681</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="0" t="n">
+        <f aca="false">L9/248.0507</f>
+        <v>2.24461066096971E-006</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">M9*300</f>
+        <v>0.000673383198290913</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>900</v>
       </c>
@@ -1354,8 +1387,16 @@
         <f aca="false">0.0000000000004*K10*K10+0.00000003*K10</f>
         <v>0.000790852975569</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="0" t="n">
+        <f aca="false">L10/248.0507</f>
+        <v>3.18827149275934E-006</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">M10*300</f>
+        <v>0.000956481447827802</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1050</v>
       </c>
@@ -1395,8 +1436,16 @@
         <f aca="false">0.0000000000004*K11*K11+0.00000003*K11</f>
         <v>0.001319905952064</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="0" t="n">
+        <f aca="false">L11/248.0507</f>
+        <v>5.32111359518034E-006</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">M11*300</f>
+        <v>0.0015963340785541</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>1200</v>
       </c>
@@ -1432,8 +1481,16 @@
         <f aca="false">(E12+I12)/2</f>
         <v>7293.7</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="0" t="n">
+        <f aca="false">L12/248.0507</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">M12*300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1350</v>
       </c>
@@ -1473,8 +1530,16 @@
         <f aca="false">0.0000000000004*K13*K13+0.00000003*K13</f>
         <v>0.002469225204225</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="0" t="n">
+        <f aca="false">L13/248.0507</f>
+        <v>9.95451818610066E-006</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">M13*300</f>
+        <v>0.0029863554558302</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1500</v>
       </c>
@@ -1514,8 +1579,16 @@
         <f aca="false">0.0000000000004*K14*K14+0.00000003*K14</f>
         <v>0.001665330878464</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="0" t="n">
+        <f aca="false">L14/248.0507</f>
+        <v>6.71367135212277E-006</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">M14*300</f>
+        <v>0.00201410140563683</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1650</v>
       </c>
@@ -1555,8 +1628,16 @@
         <f aca="false">0.0000000000004*K15*K15+0.00000003*K15</f>
         <v>0.002385619906081</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="0" t="n">
+        <f aca="false">L15/248.0507</f>
+        <v>9.61746895324625E-006</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">M15*300</f>
+        <v>0.00288524068597387</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1800</v>
       </c>
@@ -1595,6 +1676,14 @@
       <c r="L16" s="0" t="n">
         <f aca="false">0.0000000000004*K16*K16+0.00000003*K16</f>
         <v>0.002514061604169</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">L16/248.0507</f>
+        <v>1.01352731686264E-005</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">M16*300</f>
+        <v>0.00304058195058792</v>
       </c>
     </row>
   </sheetData>
@@ -1616,11 +1705,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="N4:N16 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -1646,7 +1735,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.29545225E-005</v>
+        <v>9.25396400816446E-008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1743,7 @@
         <v>150</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0001977444864</v>
+        <v>7.97193825294587E-007</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1751,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.000236927327449</v>
+        <v>9.55156858855871E-007</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1759,7 @@
         <v>450</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.000443394661249</v>
+        <v>1.78751626683174E-006</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1767,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.000415401454321</v>
+        <v>1.67466350355391E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1775,7 @@
         <v>750</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.000556777245681</v>
+        <v>2.24461066096971E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1783,7 @@
         <v>900</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.000790852975569</v>
+        <v>3.18827149275934E-006</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,20 +1791,23 @@
         <v>1050</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.001319905952064</v>
+        <v>5.32111359518034E-006</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1200</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>1350</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.002469225204225</v>
+        <v>9.95451818610066E-006</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1815,7 @@
         <v>1500</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.001665330878464</v>
+        <v>6.71367135212277E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +1823,7 @@
         <v>1650</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.002385619906081</v>
+        <v>9.61746895324625E-006</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1831,7 @@
         <v>1800</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.002514061604169</v>
+        <v>1.01352731686264E-005</v>
       </c>
     </row>
   </sheetData>
